--- a/interfaceTest/testFile/case/userCase.xlsx
+++ b/interfaceTest/testFile/case/userCase.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\git\pythondemo\interfaceTest\testFile\case\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView windowWidth="20880" windowHeight="9930"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20880" windowHeight="9930"/>
   </bookViews>
   <sheets>
     <sheet name="login" sheetId="1" r:id="rId1"/>
@@ -14,12 +19,12 @@
     <sheet name="updatePassword" sheetId="5" r:id="rId5"/>
     <sheet name="addAddress" sheetId="6" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="144525" concurrentCalc="0"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="729" uniqueCount="166">
   <si>
     <t>case_name</t>
   </si>
@@ -63,9 +68,6 @@
     <t>ok</t>
   </si>
   <si>
-    <t>login_PasswordError</t>
-  </si>
-  <si>
     <t>12345</t>
   </si>
   <si>
@@ -78,28 +80,13 @@
     <t>PasswordError</t>
   </si>
   <si>
-    <t>login_EmailError</t>
-  </si>
-  <si>
-    <t>interfa@163.com</t>
-  </si>
-  <si>
-    <t>login_EmailNull</t>
-  </si>
-  <si>
     <t>100102</t>
   </si>
   <si>
     <t>email with  call: Argument is not an json: email</t>
   </si>
   <si>
-    <t>login_PasswordNull</t>
-  </si>
-  <si>
     <t>password with  call: Argument is a blank string: password</t>
-  </si>
-  <si>
-    <t>login_TokenNull</t>
   </si>
   <si>
     <t>100105</t>
@@ -540,14 +527,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="22">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -560,6 +541,7 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -567,6 +549,7 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial Unicode MS"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
@@ -574,147 +557,26 @@
       <sz val="11"/>
       <color rgb="FF0000FF"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <sz val="9"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <sz val="9"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="34">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -723,198 +585,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -950,255 +626,16 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="29" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1211,7 +648,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="10">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
@@ -1220,74 +657,36 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="10" applyBorder="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" quotePrefix="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="10" quotePrefix="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" quotePrefix="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" quotePrefix="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+    <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -1548,15 +947,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="20" customWidth="1"/>
     <col min="3" max="3" width="6.75" customWidth="1"/>
@@ -1565,7 +963,7 @@
     <col min="8" max="8" width="62.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:8">
+    <row r="1" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -1591,7 +989,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A2" s="6" t="s">
         <v>8</v>
       </c>
@@ -1601,168 +999,91 @@
       <c r="C2" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="E2" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="F2" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="G2" s="8" t="s">
-        <v>10</v>
+      <c r="D2" s="7">
+        <v>13011111103</v>
+      </c>
+      <c r="E2" s="8">
+        <v>111111</v>
+      </c>
+      <c r="F2" s="8">
+        <v>0</v>
+      </c>
+      <c r="G2" s="8">
+        <v>0</v>
       </c>
       <c r="H2" s="6" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
-      <c r="A3" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E3" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="F3" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="G3" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="H3" s="6" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
-      <c r="A4" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="E4" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="F4" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="G4" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="H4" s="6" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
-      <c r="A5" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" s="8" t="s">
-        <v>10</v>
-      </c>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A3" s="6"/>
+      <c r="B3" s="6"/>
+      <c r="C3" s="8"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="8"/>
+      <c r="H3" s="6"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A4" s="6"/>
+      <c r="B4" s="6"/>
+      <c r="C4" s="8"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="8"/>
+      <c r="G4" s="8"/>
+      <c r="H4" s="6"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A5" s="6"/>
+      <c r="B5" s="6"/>
+      <c r="C5" s="8"/>
       <c r="D5" s="6"/>
-      <c r="E5" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="F5" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="G5" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="H5" s="6" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
-      <c r="A6" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>11</v>
-      </c>
+      <c r="E5" s="8"/>
+      <c r="F5" s="8"/>
+      <c r="G5" s="8"/>
+      <c r="H5" s="6"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A6" s="6"/>
+      <c r="B6" s="6"/>
+      <c r="C6" s="8"/>
+      <c r="D6" s="6"/>
       <c r="E6" s="6"/>
-      <c r="F6" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="G6" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="H6" s="6" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
-      <c r="A7" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="B7" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C7" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E7" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="F7" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="G7" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="H7" s="6" t="s">
-        <v>28</v>
-      </c>
+      <c r="F6" s="8"/>
+      <c r="G6" s="8"/>
+      <c r="H6" s="6"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A7" s="6"/>
+      <c r="B7" s="6"/>
+      <c r="C7" s="8"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="8"/>
+      <c r="F7" s="8"/>
+      <c r="G7" s="8"/>
+      <c r="H7" s="6"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="D4" r:id="rId1" display="interfa@163.com"/>
-    <hyperlink ref="D2" r:id="rId2" display="interface2@163.com"/>
+    <hyperlink ref="D2" r:id="rId1" display="interface2@163.com"/>
   </hyperlinks>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
-  <headerFooter/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="24.625" customWidth="1"/>
     <col min="2" max="2" width="8.25" customWidth="1"/>
@@ -1773,7 +1094,7 @@
     <col min="8" max="8" width="12.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:9">
+    <row r="1" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1790,7 +1111,7 @@
         <v>4</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>5</v>
@@ -1802,9 +1123,9 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" customFormat="1" spans="1:9">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="B2" t="s">
         <v>9</v>
@@ -1813,7 +1134,7 @@
         <v>10</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="E2" s="9" t="s">
         <v>12</v>
@@ -1831,9 +1152,9 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" customFormat="1" spans="1:9">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="B3" t="s">
         <v>9</v>
@@ -1842,27 +1163,27 @@
         <v>10</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F3" s="9" t="s">
         <v>12</v>
       </c>
       <c r="G3" s="9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H3" s="9" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="I3" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="4" customFormat="1" spans="1:9">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="B4" t="s">
         <v>9</v>
@@ -1871,7 +1192,7 @@
         <v>10</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="E4" s="9" t="s">
         <v>12</v>
@@ -1880,18 +1201,18 @@
         <v>12</v>
       </c>
       <c r="G4" s="9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H4" s="9" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="I4" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="5" customFormat="1" spans="1:9">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="B5" t="s">
         <v>9</v>
@@ -1906,18 +1227,18 @@
         <v>12</v>
       </c>
       <c r="G5" s="9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H5" s="9" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="I5" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="6" customFormat="1" spans="1:9">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="B6" t="s">
         <v>9</v>
@@ -1926,24 +1247,24 @@
         <v>10</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="F6" s="9" t="s">
         <v>12</v>
       </c>
       <c r="G6" s="9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H6" s="9" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="I6" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="7" customFormat="1" spans="1:9">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="B7" t="s">
         <v>9</v>
@@ -1952,27 +1273,27 @@
         <v>10</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="E7" s="9" t="s">
         <v>12</v>
       </c>
       <c r="F7" s="9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G7" s="9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H7" s="9" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="I7" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="8" customFormat="1" spans="1:9">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="B8" t="s">
         <v>9</v>
@@ -1981,24 +1302,24 @@
         <v>10</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="E8" s="9" t="s">
         <v>12</v>
       </c>
       <c r="G8" s="9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H8" s="9" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="I8" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="9" customFormat="1" spans="1:9">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="B9" t="s">
         <v>9</v>
@@ -2007,7 +1328,7 @@
         <v>10</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="E9" s="9" t="s">
         <v>12</v>
@@ -2016,24 +1337,24 @@
         <v>12</v>
       </c>
       <c r="G9" s="9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H9" s="9" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="I9" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="10" customFormat="1" spans="1:9">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="B10" t="s">
         <v>9</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D10" t="s">
         <v>11</v>
@@ -2045,40 +1366,39 @@
         <v>12</v>
       </c>
       <c r="G10" s="9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H10" s="9" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="I10" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="5" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="D4" r:id="rId1" display="interfa$163.com"/>
-    <hyperlink ref="D7" r:id="rId2" display="interface3@163.com"/>
-    <hyperlink ref="D8" r:id="rId2" display="interface3@163.com"/>
-    <hyperlink ref="D2" r:id="rId3" display="interface4@163.com"/>
-    <hyperlink ref="D3" r:id="rId3" display="interface4@163.com"/>
-    <hyperlink ref="D6" r:id="rId3" display="interface4@163.com"/>
-    <hyperlink ref="D9" r:id="rId3" display="interface4@163.com"/>
+    <hyperlink ref="D4" r:id="rId1"/>
+    <hyperlink ref="D7" r:id="rId2"/>
+    <hyperlink ref="D8" r:id="rId3"/>
+    <hyperlink ref="D2" r:id="rId4"/>
+    <hyperlink ref="D3" r:id="rId5"/>
+    <hyperlink ref="D6" r:id="rId6"/>
+    <hyperlink ref="D9" r:id="rId7"/>
   </hyperlinks>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
-  <headerFooter/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="$A1:$XFD1"/>
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="24.625" customWidth="1"/>
     <col min="2" max="2" width="8.25" customWidth="1"/>
@@ -2088,7 +1408,7 @@
     <col min="6" max="6" width="12.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:8">
+    <row r="1" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2112,9 +1432,9 @@
       </c>
       <c r="H1" s="2"/>
     </row>
-    <row r="2" customFormat="1" spans="1:7">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="B2" t="s">
         <v>9</v>
@@ -2123,7 +1443,7 @@
         <v>10</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="E2" s="10" t="s">
         <v>10</v>
@@ -2135,9 +1455,9 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" customFormat="1" spans="1:7">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="B3" t="s">
         <v>9</v>
@@ -2146,106 +1466,105 @@
         <v>10</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="E3" s="10" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F3" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="G3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A4" t="s">
+        <v>47</v>
+      </c>
+      <c r="B4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="F4" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="G4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A5" t="s">
+        <v>48</v>
+      </c>
+      <c r="B5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="E5" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="F5" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="G5" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A6" t="s">
+        <v>49</v>
+      </c>
+      <c r="B6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="E6" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="F6" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="G6" t="s">
         <v>22</v>
       </c>
-      <c r="G3" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="4" customFormat="1" spans="1:7">
-      <c r="A4" t="s">
-        <v>53</v>
-      </c>
-      <c r="B4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="E4" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="F4" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="G4" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="5" customFormat="1" spans="1:7">
-      <c r="A5" t="s">
-        <v>54</v>
-      </c>
-      <c r="B5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="E5" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="F5" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="G5" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="6" customFormat="1" spans="1:7">
-      <c r="A6" t="s">
-        <v>55</v>
-      </c>
-      <c r="B6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="E6" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="F6" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="G6" t="s">
-        <v>28</v>
-      </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="5" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="D3" r:id="rId1" display="facebook$163.com"/>
-    <hyperlink ref="D2" r:id="rId2" display="facebook2@163.com" tooltip="mailto:facebook2@163.com"/>
-    <hyperlink ref="D6" r:id="rId2" display="facebook2@163.com"/>
-    <hyperlink ref="D5" r:id="rId2" display="facebook2@163.com"/>
+    <hyperlink ref="D3" r:id="rId1"/>
+    <hyperlink ref="D2" r:id="rId2" tooltip="mailto:facebook2@163.com"/>
+    <hyperlink ref="D6" r:id="rId3"/>
+    <hyperlink ref="D5" r:id="rId4"/>
   </hyperlinks>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
-  <headerFooter/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="$A1:$XFD1"/>
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="27.125" customWidth="1"/>
     <col min="5" max="5" width="12.125" customWidth="1"/>
@@ -2254,7 +1573,7 @@
     <col min="8" max="9" width="13.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:11">
+    <row r="1" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2265,19 +1584,19 @@
         <v>2</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>5</v>
@@ -2289,9 +1608,9 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:11">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="B2" t="s">
         <v>9</v>
@@ -2300,19 +1619,19 @@
         <v>10</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="F2" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="G2" s="9" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="H2" s="9" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="I2" s="9" t="s">
         <v>10</v>
@@ -2324,9 +1643,9 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:11">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="B3" t="s">
         <v>9</v>
@@ -2335,66 +1654,66 @@
         <v>10</v>
       </c>
       <c r="D3" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="E3" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="F3" t="s">
+        <v>57</v>
+      </c>
+      <c r="G3" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="H3" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="I3" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="J3" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="K3" t="s">
         <v>62</v>
       </c>
-      <c r="F3" t="s">
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A4" t="s">
         <v>63</v>
       </c>
-      <c r="G3" s="9" t="s">
+      <c r="B4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="F4" t="s">
+        <v>57</v>
+      </c>
+      <c r="G4" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="H4" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="I4" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="J4" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="K4" t="s">
         <v>64</v>
       </c>
-      <c r="H3" s="9" t="s">
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A5" t="s">
         <v>65</v>
       </c>
-      <c r="I3" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="J3" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="K3" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11">
-      <c r="A4" t="s">
-        <v>69</v>
-      </c>
-      <c r="B4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="E4" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="F4" t="s">
-        <v>63</v>
-      </c>
-      <c r="G4" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="H4" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="I4" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="J4" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="K4" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11">
-      <c r="A5" t="s">
-        <v>71</v>
-      </c>
       <c r="B5" t="s">
         <v>9</v>
       </c>
@@ -2402,16 +1721,16 @@
         <v>10</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F5" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="G5" s="9" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="H5" s="9" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="I5" s="9" t="s">
         <v>10</v>
@@ -2423,9 +1742,9 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:11">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="B6" t="s">
         <v>9</v>
@@ -2434,16 +1753,16 @@
         <v>10</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="G6" s="9" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="H6" s="9" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="I6" s="9" t="s">
         <v>10</v>
@@ -2455,223 +1774,222 @@
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:11">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
+        <v>67</v>
+      </c>
+      <c r="B7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="E7" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="F7" t="s">
+        <v>57</v>
+      </c>
+      <c r="G7" t="s">
+        <v>68</v>
+      </c>
+      <c r="H7" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="I7" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="J7" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="K7" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A8" t="s">
+        <v>70</v>
+      </c>
+      <c r="B8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="E8" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="F8" t="s">
+        <v>57</v>
+      </c>
+      <c r="H8" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="I8" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="J8" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="K8" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A9" t="s">
+        <v>72</v>
+      </c>
+      <c r="B9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="E9" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="F9" t="s">
+        <v>57</v>
+      </c>
+      <c r="G9" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="H9" t="s">
+        <v>61</v>
+      </c>
+      <c r="I9" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="J9" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="K9" t="s">
         <v>73</v>
       </c>
-      <c r="B7" t="s">
-        <v>9</v>
-      </c>
-      <c r="C7" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="D7" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="E7" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="F7" t="s">
-        <v>63</v>
-      </c>
-      <c r="G7" t="s">
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A10" t="s">
         <v>74</v>
       </c>
-      <c r="H7" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="I7" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="J7" s="9" t="s">
+      <c r="B10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="E10" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="F10" t="s">
+        <v>57</v>
+      </c>
+      <c r="G10" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="I10" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="J10" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="K10" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A11" t="s">
+        <v>76</v>
+      </c>
+      <c r="B11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" t="s">
+        <v>77</v>
+      </c>
+      <c r="D11" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="E11" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="F11" t="s">
+        <v>57</v>
+      </c>
+      <c r="G11" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="H11" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="I11" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="J11" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="K11" t="s">
         <v>22</v>
       </c>
-      <c r="K7" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11">
-      <c r="A8" t="s">
-        <v>76</v>
-      </c>
-      <c r="B8" t="s">
-        <v>9</v>
-      </c>
-      <c r="C8" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="D8" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="E8" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="F8" t="s">
-        <v>63</v>
-      </c>
-      <c r="H8" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="I8" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="J8" s="9" t="s">
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A12" t="s">
+        <v>78</v>
+      </c>
+      <c r="B12" t="s">
+        <v>9</v>
+      </c>
+      <c r="D12" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="E12" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="F12" t="s">
+        <v>57</v>
+      </c>
+      <c r="G12" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="H12" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="I12" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="J12" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="K12" t="s">
         <v>22</v>
       </c>
-      <c r="K8" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11">
-      <c r="A9" t="s">
-        <v>78</v>
-      </c>
-      <c r="B9" t="s">
-        <v>9</v>
-      </c>
-      <c r="C9" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="D9" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="E9" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="F9" t="s">
-        <v>63</v>
-      </c>
-      <c r="G9" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="H9" t="s">
-        <v>67</v>
-      </c>
-      <c r="I9" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="J9" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="K9" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11">
-      <c r="A10" t="s">
-        <v>80</v>
-      </c>
-      <c r="B10" t="s">
-        <v>9</v>
-      </c>
-      <c r="C10" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="D10" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="E10" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="F10" t="s">
-        <v>63</v>
-      </c>
-      <c r="G10" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="I10" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="J10" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="K10" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11">
-      <c r="A11" t="s">
-        <v>82</v>
-      </c>
-      <c r="B11" t="s">
-        <v>9</v>
-      </c>
-      <c r="C11" t="s">
-        <v>83</v>
-      </c>
-      <c r="D11" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="E11" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="F11" t="s">
-        <v>63</v>
-      </c>
-      <c r="G11" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="H11" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="I11" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="J11" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="K11" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11">
-      <c r="A12" t="s">
-        <v>84</v>
-      </c>
-      <c r="B12" t="s">
-        <v>9</v>
-      </c>
-      <c r="D12" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="E12" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="F12" t="s">
-        <v>63</v>
-      </c>
-      <c r="G12" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="H12" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="I12" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="J12" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="K12" t="s">
-        <v>28</v>
-      </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
-  <headerFooter/>
+  <phoneticPr fontId="5" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="$A1:$XFD1"/>
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="36.125" customWidth="1"/>
     <col min="2" max="2" width="13.25" customWidth="1"/>
@@ -2680,7 +1998,7 @@
     <col min="6" max="7" width="17.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:9">
+    <row r="1" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2691,13 +2009,13 @@
         <v>2</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>5</v>
@@ -2709,9 +2027,9 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="B2" t="s">
         <v>9</v>
@@ -2720,53 +2038,53 @@
         <v>10</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="E2" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="F2" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="G2" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="H2" s="9" t="s">
+      <c r="I2" t="s">
         <v>17</v>
       </c>
-      <c r="I2" t="s">
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
+        <v>84</v>
+      </c>
+      <c r="B3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" t="s">
+        <v>83</v>
+      </c>
+      <c r="F3" t="s">
+        <v>83</v>
+      </c>
+      <c r="G3" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="H3" s="9" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="3" spans="1:9">
-      <c r="A3" t="s">
-        <v>90</v>
-      </c>
-      <c r="B3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3" t="s">
-        <v>89</v>
-      </c>
-      <c r="F3" t="s">
-        <v>89</v>
-      </c>
-      <c r="G3" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="H3" s="9" t="s">
-        <v>22</v>
-      </c>
       <c r="I3" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="B4" t="s">
         <v>9</v>
@@ -2778,21 +2096,21 @@
         <v>12</v>
       </c>
       <c r="F4" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="G4" s="9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H4" s="9" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="I4" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="B5" t="s">
         <v>9</v>
@@ -2804,24 +2122,24 @@
         <v>12</v>
       </c>
       <c r="E5" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="F5" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="G5" s="9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H5" s="9" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="I5" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="B6" t="s">
         <v>9</v>
@@ -2833,24 +2151,24 @@
         <v>12</v>
       </c>
       <c r="E6" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="F6" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="G6" s="9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H6" s="9" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="I6" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="B7" t="s">
         <v>9</v>
@@ -2862,79 +2180,79 @@
         <v>12</v>
       </c>
       <c r="E7" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="G7" s="9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H7" s="9" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="I7" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="B8" t="s">
         <v>9</v>
       </c>
       <c r="C8" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="D8" s="9" t="s">
         <v>12</v>
       </c>
       <c r="E8" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="F8" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="G8" s="9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H8" s="9" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="I8" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="B9" t="s">
         <v>9</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D9" s="9" t="s">
         <v>12</v>
       </c>
       <c r="E9" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="F9" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="G9" s="9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H9" s="9" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="I9" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="B10" t="s">
         <v>9</v>
@@ -2943,24 +2261,24 @@
         <v>12</v>
       </c>
       <c r="E10" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="F10" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="G10" s="9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H10" s="9" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="I10" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="B11" t="s">
         <v>9</v>
@@ -2972,10 +2290,10 @@
         <v>12</v>
       </c>
       <c r="E11" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="F11" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="G11" s="9" t="s">
         <v>10</v>
@@ -2988,21 +2306,20 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
-  <headerFooter/>
+  <phoneticPr fontId="5" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="I26" sqref="I26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="22.75" customWidth="1"/>
     <col min="2" max="3" width="13.125" customWidth="1"/>
@@ -3011,7 +2328,7 @@
     <col min="10" max="10" width="25.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:21">
+    <row r="1" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -3022,49 +2339,49 @@
         <v>2</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="E1" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="K1" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="L1" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="M1" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="N1" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="O1" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>113</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>119</v>
       </c>
       <c r="S1" s="1" t="s">
         <v>5</v>
@@ -3076,57 +2393,57 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:21">
+    <row r="2" spans="1:21" ht="15" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
+        <v>114</v>
+      </c>
+      <c r="B2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="G2" s="11" t="s">
+        <v>118</v>
+      </c>
+      <c r="H2" s="11" t="s">
+        <v>119</v>
+      </c>
+      <c r="I2" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="B2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2" s="3" t="s">
+      <c r="J2" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="K2" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="L2" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="G2" s="11" t="s">
+      <c r="M2" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="N2" s="11" t="s">
         <v>124</v>
       </c>
-      <c r="H2" s="11" t="s">
+      <c r="O2" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="I2" s="3" t="s">
+      <c r="P2" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="J2" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="K2" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="L2" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="M2" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="N2" s="11" t="s">
-        <v>130</v>
-      </c>
-      <c r="O2" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="P2" s="3" t="s">
-        <v>132</v>
-      </c>
       <c r="Q2" s="11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="R2" s="9" t="s">
         <v>10</v>
@@ -3141,9 +2458,9 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:21">
+    <row r="3" spans="1:21" ht="15" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="B3" t="s">
         <v>9</v>
@@ -3153,61 +2470,61 @@
       </c>
       <c r="D3" s="3"/>
       <c r="E3" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="G3" s="11" t="s">
+        <v>118</v>
+      </c>
+      <c r="H3" s="11" t="s">
+        <v>119</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="K3" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="L3" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="G3" s="11" t="s">
+      <c r="M3" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="N3" s="11" t="s">
         <v>124</v>
       </c>
-      <c r="H3" s="11" t="s">
+      <c r="O3" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="I3" s="3" t="s">
+      <c r="P3" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="J3" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="K3" s="3" t="s">
+      <c r="Q3" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="R3" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="S3" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="T3" s="9" t="s">
         <v>128</v>
       </c>
-      <c r="L3" s="3" t="s">
+      <c r="U3" t="s">
         <v>129</v>
       </c>
-      <c r="M3" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="N3" s="11" t="s">
+    </row>
+    <row r="4" spans="1:21" ht="15" x14ac:dyDescent="0.15">
+      <c r="A4" t="s">
         <v>130</v>
       </c>
-      <c r="O3" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="P3" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="Q3" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="R3" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="S3" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="T3" s="9" t="s">
-        <v>134</v>
-      </c>
-      <c r="U3" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="4" spans="1:21">
-      <c r="A4" t="s">
-        <v>136</v>
-      </c>
       <c r="B4" t="s">
         <v>9</v>
       </c>
@@ -3215,61 +2532,61 @@
         <v>10</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="E4" s="3"/>
       <c r="F4" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="G4" s="11" t="s">
+        <v>118</v>
+      </c>
+      <c r="H4" s="11" t="s">
+        <v>119</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="K4" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="L4" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="G4" s="11" t="s">
+      <c r="M4" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="N4" s="11" t="s">
         <v>124</v>
       </c>
-      <c r="H4" s="11" t="s">
+      <c r="O4" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="I4" s="3" t="s">
+      <c r="P4" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="J4" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="K4" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="L4" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="M4" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="N4" s="11" t="s">
-        <v>130</v>
-      </c>
-      <c r="O4" s="3" t="s">
+      <c r="Q4" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="R4" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="S4" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="T4" s="9" t="s">
         <v>131</v>
       </c>
-      <c r="P4" s="3" t="s">
+      <c r="U4" t="s">
         <v>132</v>
       </c>
-      <c r="Q4" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="R4" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="S4" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="T4" s="9" t="s">
-        <v>137</v>
-      </c>
-      <c r="U4" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="5" spans="1:21">
+    </row>
+    <row r="5" spans="1:21" ht="15" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="B5" t="s">
         <v>9</v>
@@ -3278,61 +2595,61 @@
         <v>10</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="F5" s="3"/>
       <c r="G5" s="11" t="s">
+        <v>118</v>
+      </c>
+      <c r="H5" s="11" t="s">
+        <v>119</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="J5" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="K5" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="L5" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="M5" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="N5" s="11" t="s">
         <v>124</v>
       </c>
-      <c r="H5" s="11" t="s">
+      <c r="O5" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="I5" s="3" t="s">
+      <c r="P5" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="J5" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="K5" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="L5" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="M5" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="N5" s="11" t="s">
-        <v>130</v>
-      </c>
-      <c r="O5" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="P5" s="3" t="s">
-        <v>132</v>
-      </c>
       <c r="Q5" s="11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="R5" s="9" t="s">
         <v>10</v>
       </c>
       <c r="S5" s="9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="T5" s="9" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="U5" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="6" spans="1:21">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" ht="15" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="B6" t="s">
         <v>9</v>
@@ -3341,61 +2658,61 @@
         <v>10</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="G6" s="3"/>
       <c r="H6" s="11" t="s">
+        <v>119</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="J6" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="K6" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="L6" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="M6" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="N6" s="11" t="s">
+        <v>124</v>
+      </c>
+      <c r="O6" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="I6" s="3" t="s">
+      <c r="P6" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="J6" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="K6" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="L6" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="M6" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="N6" s="11" t="s">
-        <v>130</v>
-      </c>
-      <c r="O6" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="P6" s="3" t="s">
-        <v>132</v>
-      </c>
       <c r="Q6" s="11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="R6" s="9" t="s">
         <v>10</v>
       </c>
       <c r="S6" s="9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="T6" s="9" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="U6" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="7" spans="1:21">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" ht="15" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="B7" t="s">
         <v>9</v>
@@ -3404,63 +2721,63 @@
         <v>10</v>
       </c>
       <c r="D7" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="H7" s="11" t="s">
+        <v>119</v>
+      </c>
+      <c r="I7" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="J7" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="E7" s="3" t="s">
+      <c r="K7" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="F7" s="3" t="s">
+      <c r="L7" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="G7" s="3" t="s">
-        <v>146</v>
-      </c>
-      <c r="H7" s="11" t="s">
+      <c r="M7" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="N7" s="11" t="s">
+        <v>124</v>
+      </c>
+      <c r="O7" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="I7" s="3" t="s">
+      <c r="P7" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="J7" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="K7" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="L7" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="M7" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="N7" s="11" t="s">
-        <v>130</v>
-      </c>
-      <c r="O7" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="P7" s="3" t="s">
-        <v>132</v>
-      </c>
       <c r="Q7" s="11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="R7" s="9" t="s">
         <v>10</v>
       </c>
       <c r="S7" s="9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="T7" s="9" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="U7" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="8" spans="1:21">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" ht="15" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="B8" t="s">
         <v>9</v>
@@ -3469,61 +2786,61 @@
         <v>10</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="G8" s="11" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="H8" s="11" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="I8" s="3"/>
       <c r="J8" s="3" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="K8" s="3" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="L8" s="3" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="M8" s="11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="N8" s="11" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="O8" s="3" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="P8" s="3" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="Q8" s="11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="R8" s="9" t="s">
         <v>10</v>
       </c>
       <c r="S8" s="9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="T8" s="9" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="U8" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="9" spans="1:21">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" ht="15" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="B9" t="s">
         <v>9</v>
@@ -3532,63 +2849,63 @@
         <v>10</v>
       </c>
       <c r="D9" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="G9" s="11" t="s">
+        <v>118</v>
+      </c>
+      <c r="H9" s="11" t="s">
+        <v>119</v>
+      </c>
+      <c r="I9" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="J9" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="E9" s="3" t="s">
+      <c r="K9" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="F9" s="3" t="s">
+      <c r="L9" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="G9" s="11" t="s">
+      <c r="M9" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="N9" s="11" t="s">
         <v>124</v>
       </c>
-      <c r="H9" s="11" t="s">
+      <c r="O9" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="I9" s="3" t="s">
-        <v>151</v>
-      </c>
-      <c r="J9" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="K9" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="L9" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="M9" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="N9" s="11" t="s">
-        <v>130</v>
-      </c>
-      <c r="O9" s="3" t="s">
-        <v>131</v>
-      </c>
       <c r="P9" s="3" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="Q9" s="11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="R9" s="9" t="s">
         <v>10</v>
       </c>
       <c r="S9" s="9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="T9" s="9" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="U9" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="10" spans="1:21">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" ht="15" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="B10" t="s">
         <v>9</v>
@@ -3597,61 +2914,61 @@
         <v>10</v>
       </c>
       <c r="D10" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="G10" s="11" t="s">
+        <v>118</v>
+      </c>
+      <c r="H10" s="11" t="s">
+        <v>119</v>
+      </c>
+      <c r="I10" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="J10" s="3" t="s">
         <v>121</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="G10" s="11" t="s">
-        <v>124</v>
-      </c>
-      <c r="H10" s="11" t="s">
-        <v>125</v>
-      </c>
-      <c r="I10" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="J10" s="3" t="s">
-        <v>127</v>
       </c>
       <c r="K10" s="3"/>
       <c r="L10" s="3" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="M10" s="11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="N10" s="11" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="O10" s="3" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="P10" s="3" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="Q10" s="11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="R10" s="9" t="s">
         <v>10</v>
       </c>
       <c r="S10" s="9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="T10" s="9" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="U10" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="11" spans="1:21">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" ht="15" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="B11" t="s">
         <v>9</v>
@@ -3660,126 +2977,126 @@
         <v>10</v>
       </c>
       <c r="D11" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="G11" s="11" t="s">
+        <v>118</v>
+      </c>
+      <c r="H11" s="11" t="s">
+        <v>119</v>
+      </c>
+      <c r="I11" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="J11" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="E11" s="3" t="s">
+      <c r="K11" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="L11" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="M11" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="N11" s="11" t="s">
+        <v>124</v>
+      </c>
+      <c r="O11" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="P11" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="Q11" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="R11" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="S11" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="T11" s="9" t="s">
+        <v>147</v>
+      </c>
+      <c r="U11" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21" ht="15" x14ac:dyDescent="0.15">
+      <c r="A12" t="s">
+        <v>151</v>
+      </c>
+      <c r="B12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="G12" s="11" t="s">
+        <v>118</v>
+      </c>
+      <c r="H12" s="11" t="s">
+        <v>119</v>
+      </c>
+      <c r="I12" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="J12" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="K12" s="3" t="s">
         <v>122</v>
-      </c>
-      <c r="F11" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="G11" s="11" t="s">
-        <v>124</v>
-      </c>
-      <c r="H11" s="11" t="s">
-        <v>125</v>
-      </c>
-      <c r="I11" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="J11" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="K11" s="3" t="s">
-        <v>156</v>
-      </c>
-      <c r="L11" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="M11" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="N11" s="11" t="s">
-        <v>130</v>
-      </c>
-      <c r="O11" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="P11" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="Q11" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="R11" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="S11" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="T11" s="9" t="s">
-        <v>153</v>
-      </c>
-      <c r="U11" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="12" spans="1:21">
-      <c r="A12" t="s">
-        <v>157</v>
-      </c>
-      <c r="B12" t="s">
-        <v>9</v>
-      </c>
-      <c r="C12" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="F12" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="G12" s="11" t="s">
-        <v>124</v>
-      </c>
-      <c r="H12" s="11" t="s">
-        <v>125</v>
-      </c>
-      <c r="I12" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="J12" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="K12" s="3" t="s">
-        <v>128</v>
       </c>
       <c r="L12" s="3"/>
       <c r="M12" s="11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="N12" s="11" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="O12" s="3" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="P12" s="3" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="Q12" s="11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="R12" s="9" t="s">
         <v>10</v>
       </c>
       <c r="S12" s="9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="T12" s="9" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="U12" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="13" spans="1:21">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" ht="15" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="B13" t="s">
         <v>9</v>
@@ -3788,61 +3105,61 @@
         <v>10</v>
       </c>
       <c r="D13" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="G13" s="11" t="s">
+        <v>118</v>
+      </c>
+      <c r="H13" s="11" t="s">
+        <v>119</v>
+      </c>
+      <c r="I13" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="J13" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="E13" s="3" t="s">
+      <c r="K13" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="F13" s="3" t="s">
+      <c r="L13" s="3" t="s">
         <v>123</v>
-      </c>
-      <c r="G13" s="11" t="s">
-        <v>124</v>
-      </c>
-      <c r="H13" s="11" t="s">
-        <v>125</v>
-      </c>
-      <c r="I13" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="J13" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="K13" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="L13" s="3" t="s">
-        <v>129</v>
       </c>
       <c r="M13" s="3"/>
       <c r="N13" s="11" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="O13" s="3" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="P13" s="3" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="Q13" s="11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="R13" s="9" t="s">
         <v>10</v>
       </c>
       <c r="S13" s="9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="T13" s="9" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="U13" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="14" spans="1:21">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" ht="15" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="B14" t="s">
         <v>9</v>
@@ -3851,63 +3168,63 @@
         <v>10</v>
       </c>
       <c r="D14" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="G14" s="11" t="s">
+        <v>118</v>
+      </c>
+      <c r="H14" s="11" t="s">
+        <v>119</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="J14" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="E14" s="3" t="s">
+      <c r="K14" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="F14" s="3" t="s">
+      <c r="L14" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="G14" s="11" t="s">
+      <c r="M14" s="11" t="s">
+        <v>158</v>
+      </c>
+      <c r="N14" s="11" t="s">
         <v>124</v>
       </c>
-      <c r="H14" s="11" t="s">
+      <c r="O14" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="I14" s="3" t="s">
+      <c r="P14" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="J14" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="K14" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="L14" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="M14" s="11" t="s">
-        <v>164</v>
-      </c>
-      <c r="N14" s="11" t="s">
-        <v>130</v>
-      </c>
-      <c r="O14" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="P14" s="3" t="s">
-        <v>132</v>
-      </c>
       <c r="Q14" s="11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="R14" s="9" t="s">
         <v>10</v>
       </c>
       <c r="S14" s="9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="T14" s="9" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="U14" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="15" spans="1:21">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" ht="15" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="B15" t="s">
         <v>9</v>
@@ -3916,251 +3233,251 @@
         <v>10</v>
       </c>
       <c r="D15" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="G15" s="11" t="s">
+        <v>118</v>
+      </c>
+      <c r="H15" s="11" t="s">
+        <v>119</v>
+      </c>
+      <c r="I15" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="J15" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="E15" s="3" t="s">
+      <c r="K15" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="F15" s="3" t="s">
+      <c r="L15" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="G15" s="11" t="s">
-        <v>124</v>
-      </c>
-      <c r="H15" s="11" t="s">
-        <v>125</v>
-      </c>
-      <c r="I15" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="J15" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="K15" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="L15" s="3" t="s">
-        <v>129</v>
-      </c>
       <c r="M15" s="11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="N15" s="3"/>
       <c r="O15" s="3" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="P15" s="3" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="Q15" s="11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="R15" s="9" t="s">
         <v>10</v>
       </c>
       <c r="S15" s="9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="T15" s="9" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="U15" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="16" spans="1:21">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" ht="15" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="B16" t="s">
         <v>9</v>
       </c>
       <c r="C16" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="D16" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="G16" s="11" t="s">
+        <v>118</v>
+      </c>
+      <c r="H16" s="11" t="s">
+        <v>119</v>
+      </c>
+      <c r="I16" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="J16" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="E16" s="3" t="s">
+      <c r="K16" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="F16" s="3" t="s">
+      <c r="L16" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="G16" s="11" t="s">
+      <c r="M16" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="N16" s="11" t="s">
         <v>124</v>
       </c>
-      <c r="H16" s="11" t="s">
+      <c r="O16" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="I16" s="3" t="s">
+      <c r="P16" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="J16" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="K16" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="L16" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="M16" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="N16" s="11" t="s">
-        <v>130</v>
-      </c>
-      <c r="O16" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="P16" s="3" t="s">
-        <v>132</v>
-      </c>
       <c r="Q16" s="11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="R16" s="9" t="s">
         <v>10</v>
       </c>
       <c r="S16" s="9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="T16" s="9" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="U16" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="17" spans="1:21">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="17" spans="1:21" ht="15" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="B17" t="s">
         <v>9</v>
       </c>
       <c r="C17" s="9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D17" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="G17" s="11" t="s">
+        <v>118</v>
+      </c>
+      <c r="H17" s="11" t="s">
+        <v>119</v>
+      </c>
+      <c r="I17" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="J17" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="E17" s="3" t="s">
+      <c r="K17" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="F17" s="3" t="s">
+      <c r="L17" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="G17" s="11" t="s">
+      <c r="M17" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="N17" s="11" t="s">
         <v>124</v>
       </c>
-      <c r="H17" s="11" t="s">
+      <c r="O17" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="I17" s="3" t="s">
+      <c r="P17" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="J17" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="K17" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="L17" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="M17" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="N17" s="11" t="s">
-        <v>130</v>
-      </c>
-      <c r="O17" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="P17" s="3" t="s">
-        <v>132</v>
-      </c>
       <c r="Q17" s="11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="R17" s="9" t="s">
         <v>10</v>
       </c>
       <c r="S17" s="9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="T17" s="9" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="U17" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="18" spans="1:21">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="18" spans="1:21" ht="15" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="B18" t="s">
         <v>9</v>
       </c>
       <c r="D18" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="G18" s="11" t="s">
+        <v>118</v>
+      </c>
+      <c r="H18" s="11" t="s">
+        <v>119</v>
+      </c>
+      <c r="I18" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="J18" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="E18" s="3" t="s">
+      <c r="K18" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="F18" s="3" t="s">
+      <c r="L18" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="G18" s="11" t="s">
+      <c r="M18" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="N18" s="11" t="s">
         <v>124</v>
       </c>
-      <c r="H18" s="11" t="s">
+      <c r="O18" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="I18" s="3" t="s">
+      <c r="P18" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="J18" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="K18" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="L18" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="M18" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="N18" s="11" t="s">
-        <v>130</v>
-      </c>
-      <c r="O18" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="P18" s="3" t="s">
-        <v>132</v>
-      </c>
       <c r="Q18" s="11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="R18" s="9" t="s">
         <v>10</v>
       </c>
       <c r="S18" s="9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="T18" s="9" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="U18" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="19" spans="4:17">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="19" spans="1:21" ht="15" x14ac:dyDescent="0.15">
       <c r="D19" s="3"/>
       <c r="E19" s="3"/>
       <c r="F19" s="3"/>
@@ -4176,7 +3493,7 @@
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
     </row>
-    <row r="20" spans="4:17">
+    <row r="20" spans="1:21" ht="15" x14ac:dyDescent="0.15">
       <c r="D20" s="3"/>
       <c r="E20" s="3"/>
       <c r="F20" s="3"/>
@@ -4192,7 +3509,7 @@
       <c r="P20" s="3"/>
       <c r="Q20" s="3"/>
     </row>
-    <row r="21" spans="4:17">
+    <row r="21" spans="1:21" ht="15" x14ac:dyDescent="0.15">
       <c r="D21" s="3"/>
       <c r="E21" s="3"/>
       <c r="F21" s="3"/>
@@ -4209,7 +3526,7 @@
       <c r="Q21" s="3"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
-  <headerFooter/>
+  <phoneticPr fontId="5" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
 </worksheet>
 </file>
--- a/interfaceTest/testFile/case/userCase.xlsx
+++ b/interfaceTest/testFile/case/userCase.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="729" uniqueCount="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="731" uniqueCount="168">
   <si>
     <t>case_name</t>
   </si>
@@ -522,13 +522,31 @@
   </si>
   <si>
     <t>addAddress_tokenNull</t>
+  </si>
+  <si>
+    <t>111111</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>13011111103</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -570,6 +588,14 @@
     </font>
     <font>
       <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
@@ -635,7 +661,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -670,6 +696,12 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -951,7 +983,7 @@
   <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -996,22 +1028,22 @@
       <c r="B2" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2" s="7">
-        <v>13011111103</v>
-      </c>
-      <c r="E2" s="8">
-        <v>111111</v>
+      <c r="C2" s="8">
+        <v>1</v>
+      </c>
+      <c r="D2" s="13" t="s">
+        <v>167</v>
+      </c>
+      <c r="E2" s="12" t="s">
+        <v>166</v>
       </c>
       <c r="F2" s="8">
         <v>0</v>
       </c>
-      <c r="G2" s="8">
-        <v>0</v>
-      </c>
-      <c r="H2" s="6" t="s">
+      <c r="G2" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="H2" t="s">
         <v>13</v>
       </c>
     </row>
@@ -1067,11 +1099,8 @@
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
-  <hyperlinks>
-    <hyperlink ref="D2" r:id="rId1" display="interface2@163.com"/>
-  </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1080,7 +1109,7 @@
   <dimension ref="A1:I10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1395,7 +1424,7 @@
   <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1986,7 +2015,7 @@
   <dimension ref="A1:I11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>

--- a/interfaceTest/testFile/case/userCase.xlsx
+++ b/interfaceTest/testFile/case/userCase.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="731" uniqueCount="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="730" uniqueCount="169">
   <si>
     <t>case_name</t>
   </si>
@@ -48,9 +48,6 @@
   </si>
   <si>
     <t>msg</t>
-  </si>
-  <si>
-    <t>login</t>
   </si>
   <si>
     <t>post</t>
@@ -528,17 +525,15 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>13011111103</t>
-    </r>
+    <t>username</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>login_username_error</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>13111111103</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -980,10 +975,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H7"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1006,7 +1001,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>3</v>
+        <v>166</v>
       </c>
       <c r="E1" s="5" t="s">
         <v>4</v>
@@ -1023,35 +1018,35 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A2" s="6" t="s">
-        <v>8</v>
+        <v>167</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C2" s="8">
         <v>1</v>
       </c>
       <c r="D2" s="13" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="E2" s="12" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="F2" s="8">
         <v>0</v>
       </c>
-      <c r="G2" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="H2" t="s">
-        <v>13</v>
+      <c r="G2" s="8">
+        <v>0</v>
+      </c>
+      <c r="H2" s="6" t="s">
+        <v>167</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A3" s="6"/>
       <c r="B3" s="6"/>
       <c r="C3" s="8"/>
-      <c r="D3" s="6"/>
+      <c r="D3" s="7"/>
       <c r="E3" s="8"/>
       <c r="F3" s="8"/>
       <c r="G3" s="8"/>
@@ -1061,7 +1056,7 @@
       <c r="A4" s="6"/>
       <c r="B4" s="6"/>
       <c r="C4" s="8"/>
-      <c r="D4" s="7"/>
+      <c r="D4" s="6"/>
       <c r="E4" s="8"/>
       <c r="F4" s="8"/>
       <c r="G4" s="8"/>
@@ -1072,7 +1067,7 @@
       <c r="B5" s="6"/>
       <c r="C5" s="8"/>
       <c r="D5" s="6"/>
-      <c r="E5" s="8"/>
+      <c r="E5" s="6"/>
       <c r="F5" s="8"/>
       <c r="G5" s="8"/>
       <c r="H5" s="6"/>
@@ -1082,20 +1077,10 @@
       <c r="B6" s="6"/>
       <c r="C6" s="8"/>
       <c r="D6" s="6"/>
-      <c r="E6" s="6"/>
+      <c r="E6" s="8"/>
       <c r="F6" s="8"/>
       <c r="G6" s="8"/>
       <c r="H6" s="6"/>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A7" s="6"/>
-      <c r="B7" s="6"/>
-      <c r="C7" s="8"/>
-      <c r="D7" s="6"/>
-      <c r="E7" s="8"/>
-      <c r="F7" s="8"/>
-      <c r="G7" s="8"/>
-      <c r="H7" s="6"/>
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
@@ -1140,7 +1125,7 @@
         <v>4</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>5</v>
@@ -1154,254 +1139,254 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="B2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>25</v>
-      </c>
       <c r="E2" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="H2" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="I2" t="s">
         <v>12</v>
-      </c>
-      <c r="F2" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="G2" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="H2" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="I2" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E3" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="G3" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="H3" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="B3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="E3" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="F3" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="G3" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="H3" s="9" t="s">
+      <c r="I3" t="s">
         <v>27</v>
-      </c>
-      <c r="I3" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="B4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" s="4" t="s">
+      <c r="E4" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="G4" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="H4" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="I4" t="s">
         <v>30</v>
-      </c>
-      <c r="E4" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="F4" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="G4" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="H4" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="I4" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E5" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F5" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G5" s="9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H5" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="I5" t="s">
         <v>18</v>
-      </c>
-      <c r="I5" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F6" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G6" s="9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H6" s="9" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
+        <v>33</v>
+      </c>
+      <c r="B7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="B7" t="s">
-        <v>9</v>
-      </c>
-      <c r="C7" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>35</v>
-      </c>
       <c r="E7" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F7" s="9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G7" s="9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H7" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="I7" t="s">
         <v>27</v>
-      </c>
-      <c r="I7" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
+        <v>35</v>
+      </c>
+      <c r="B8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="E8" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="G8" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="H8" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="I8" t="s">
         <v>36</v>
-      </c>
-      <c r="B8" t="s">
-        <v>9</v>
-      </c>
-      <c r="C8" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="E8" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="G8" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="H8" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="I8" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
+        <v>37</v>
+      </c>
+      <c r="B9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E9" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="F9" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="G9" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="H9" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="B9" t="s">
-        <v>9</v>
-      </c>
-      <c r="C9" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="E9" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="F9" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="G9" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="H9" s="9" t="s">
+      <c r="I9" t="s">
         <v>39</v>
-      </c>
-      <c r="I9" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B10" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D10" t="s">
+        <v>10</v>
+      </c>
+      <c r="E10" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="E10" s="9" t="s">
-        <v>12</v>
-      </c>
       <c r="F10" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G10" s="9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H10" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="I10" t="s">
         <v>21</v>
-      </c>
-      <c r="I10" t="s">
-        <v>22</v>
       </c>
     </row>
   </sheetData>
@@ -1463,114 +1448,114 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="B2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>43</v>
-      </c>
       <c r="E2" s="10" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F2" s="9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="B3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" s="4" t="s">
+      <c r="E3" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="G3" t="s">
         <v>45</v>
-      </c>
-      <c r="E3" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="F3" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="G3" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F4" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="G4" t="s">
         <v>18</v>
-      </c>
-      <c r="G4" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E5" s="10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F5" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="G5" t="s">
         <v>39</v>
-      </c>
-      <c r="G5" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E6" s="10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F6" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="G6" t="s">
         <v>21</v>
-      </c>
-      <c r="G6" t="s">
-        <v>22</v>
       </c>
     </row>
   </sheetData>
@@ -1613,19 +1598,19 @@
         <v>2</v>
       </c>
       <c r="D1" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>53</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>54</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>5</v>
@@ -1639,369 +1624,369 @@
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="B2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="E2" s="9" t="s">
+      <c r="F2" t="s">
         <v>56</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="G2" s="9" t="s">
+      <c r="H2" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="H2" s="9" t="s">
-        <v>59</v>
-      </c>
       <c r="I2" s="9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="J2" s="9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="K2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
+        <v>59</v>
+      </c>
+      <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" t="s">
         <v>60</v>
       </c>
-      <c r="B3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" t="s">
+      <c r="E3" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="F3" t="s">
+        <v>56</v>
+      </c>
+      <c r="G3" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="H3" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="I3" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="J3" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="K3" t="s">
         <v>61</v>
-      </c>
-      <c r="E3" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="F3" t="s">
-        <v>57</v>
-      </c>
-      <c r="G3" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="H3" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="I3" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="J3" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="K3" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
+        <v>62</v>
+      </c>
+      <c r="B4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="F4" t="s">
+        <v>56</v>
+      </c>
+      <c r="G4" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="H4" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="I4" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="J4" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="K4" t="s">
         <v>63</v>
-      </c>
-      <c r="B4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="E4" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="F4" t="s">
-        <v>57</v>
-      </c>
-      <c r="G4" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="H4" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="I4" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="J4" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="K4" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F5" t="s">
+        <v>56</v>
+      </c>
+      <c r="G5" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="G5" s="9" t="s">
+      <c r="H5" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="H5" s="9" t="s">
-        <v>59</v>
-      </c>
       <c r="I5" s="9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="J5" s="9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="K5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G6" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="H6" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="H6" s="9" t="s">
-        <v>59</v>
-      </c>
       <c r="I6" s="9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="J6" s="9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="K6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
+        <v>66</v>
+      </c>
+      <c r="B7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="E7" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="F7" t="s">
+        <v>56</v>
+      </c>
+      <c r="G7" t="s">
         <v>67</v>
       </c>
-      <c r="B7" t="s">
-        <v>9</v>
-      </c>
-      <c r="C7" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="D7" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="E7" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="F7" t="s">
-        <v>57</v>
-      </c>
-      <c r="G7" t="s">
+      <c r="H7" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="I7" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="J7" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="K7" t="s">
         <v>68</v>
-      </c>
-      <c r="H7" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="I7" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="J7" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="K7" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
+        <v>69</v>
+      </c>
+      <c r="B8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="E8" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="F8" t="s">
+        <v>56</v>
+      </c>
+      <c r="H8" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="I8" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="J8" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="K8" t="s">
         <v>70</v>
-      </c>
-      <c r="B8" t="s">
-        <v>9</v>
-      </c>
-      <c r="C8" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="D8" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="E8" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="F8" t="s">
-        <v>57</v>
-      </c>
-      <c r="H8" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="I8" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="J8" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="K8" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
+        <v>71</v>
+      </c>
+      <c r="B9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="E9" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="F9" t="s">
+        <v>56</v>
+      </c>
+      <c r="G9" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="H9" t="s">
+        <v>60</v>
+      </c>
+      <c r="I9" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="J9" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="K9" t="s">
         <v>72</v>
-      </c>
-      <c r="B9" t="s">
-        <v>9</v>
-      </c>
-      <c r="C9" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="D9" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="E9" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="F9" t="s">
-        <v>57</v>
-      </c>
-      <c r="G9" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="H9" t="s">
-        <v>61</v>
-      </c>
-      <c r="I9" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="J9" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="K9" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
+        <v>73</v>
+      </c>
+      <c r="B10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="E10" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="F10" t="s">
+        <v>56</v>
+      </c>
+      <c r="G10" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="I10" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="J10" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="K10" t="s">
         <v>74</v>
-      </c>
-      <c r="B10" t="s">
-        <v>9</v>
-      </c>
-      <c r="C10" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="D10" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="E10" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="F10" t="s">
-        <v>57</v>
-      </c>
-      <c r="G10" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="I10" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="J10" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="K10" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
+        <v>75</v>
+      </c>
+      <c r="B11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" t="s">
         <v>76</v>
       </c>
-      <c r="B11" t="s">
-        <v>9</v>
-      </c>
-      <c r="C11" t="s">
-        <v>77</v>
-      </c>
       <c r="D11" s="9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E11" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="F11" t="s">
         <v>56</v>
       </c>
-      <c r="F11" t="s">
+      <c r="G11" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="G11" s="9" t="s">
+      <c r="H11" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="H11" s="9" t="s">
-        <v>59</v>
-      </c>
       <c r="I11" s="9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J11" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="K11" t="s">
         <v>21</v>
-      </c>
-      <c r="K11" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B12" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E12" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="F12" t="s">
         <v>56</v>
       </c>
-      <c r="F12" t="s">
+      <c r="G12" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="G12" s="9" t="s">
+      <c r="H12" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="H12" s="9" t="s">
-        <v>59</v>
-      </c>
       <c r="I12" s="9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J12" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="K12" t="s">
         <v>21</v>
-      </c>
-      <c r="K12" t="s">
-        <v>22</v>
       </c>
     </row>
   </sheetData>
@@ -2038,13 +2023,13 @@
         <v>2</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>5</v>
@@ -2058,280 +2043,280 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="9" t="s">
         <v>81</v>
       </c>
-      <c r="B2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2" s="9" t="s">
+      <c r="E2" t="s">
         <v>82</v>
       </c>
-      <c r="E2" t="s">
-        <v>83</v>
-      </c>
       <c r="F2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G2" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="H2" s="9" t="s">
+      <c r="I2" t="s">
         <v>16</v>
-      </c>
-      <c r="I2" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
+        <v>83</v>
+      </c>
+      <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" t="s">
+        <v>82</v>
+      </c>
+      <c r="F3" t="s">
+        <v>82</v>
+      </c>
+      <c r="G3" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="H3" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="I3" t="s">
         <v>84</v>
-      </c>
-      <c r="B3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3" t="s">
-        <v>83</v>
-      </c>
-      <c r="F3" t="s">
-        <v>83</v>
-      </c>
-      <c r="G3" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="H3" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="I3" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G4" s="9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H4" s="9" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
+        <v>86</v>
+      </c>
+      <c r="B5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" t="s">
         <v>87</v>
       </c>
-      <c r="B5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="D5" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="E5" t="s">
+      <c r="F5" t="s">
+        <v>87</v>
+      </c>
+      <c r="G5" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="H5" s="9" t="s">
         <v>88</v>
       </c>
-      <c r="F5" t="s">
-        <v>88</v>
-      </c>
-      <c r="G5" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="H5" s="9" t="s">
+      <c r="I5" t="s">
         <v>89</v>
-      </c>
-      <c r="I5" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
+        <v>90</v>
+      </c>
+      <c r="B6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="E6" t="s">
+        <v>82</v>
+      </c>
+      <c r="F6" t="s">
         <v>91</v>
       </c>
-      <c r="B6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="D6" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="E6" t="s">
-        <v>83</v>
-      </c>
-      <c r="F6" t="s">
-        <v>92</v>
-      </c>
       <c r="G6" s="9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H6" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="I6" t="s">
         <v>27</v>
-      </c>
-      <c r="I6" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G7" s="9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H7" s="9" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
+        <v>93</v>
+      </c>
+      <c r="B8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" t="s">
         <v>94</v>
       </c>
-      <c r="B8" t="s">
-        <v>9</v>
-      </c>
-      <c r="C8" t="s">
-        <v>95</v>
-      </c>
       <c r="D8" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E8" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F8" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G8" s="9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H8" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="I8" t="s">
         <v>21</v>
-      </c>
-      <c r="I8" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
+        <v>95</v>
+      </c>
+      <c r="B9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="E9" t="s">
+        <v>82</v>
+      </c>
+      <c r="F9" t="s">
+        <v>82</v>
+      </c>
+      <c r="G9" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="H9" s="9" t="s">
         <v>96</v>
       </c>
-      <c r="B9" t="s">
-        <v>9</v>
-      </c>
-      <c r="C9" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="D9" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="E9" t="s">
-        <v>83</v>
-      </c>
-      <c r="F9" t="s">
-        <v>83</v>
-      </c>
-      <c r="G9" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="H9" s="9" t="s">
+      <c r="I9" t="s">
         <v>97</v>
-      </c>
-      <c r="I9" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B10" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E10" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F10" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G10" s="9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H10" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="I10" t="s">
         <v>21</v>
-      </c>
-      <c r="I10" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B11" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D11" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="E11" t="s">
+        <v>82</v>
+      </c>
+      <c r="F11" t="s">
+        <v>82</v>
+      </c>
+      <c r="G11" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="H11" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="I11" t="s">
         <v>12</v>
-      </c>
-      <c r="E11" t="s">
-        <v>83</v>
-      </c>
-      <c r="F11" t="s">
-        <v>83</v>
-      </c>
-      <c r="G11" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="H11" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="I11" t="s">
-        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -2368,49 +2353,49 @@
         <v>2</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E1" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="O1" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="N1" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>112</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>113</v>
       </c>
       <c r="S1" s="1" t="s">
         <v>5</v>
@@ -2424,1086 +2409,1086 @@
     </row>
     <row r="2" spans="1:21" ht="15" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
+        <v>113</v>
+      </c>
+      <c r="B2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="B2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2" s="3" t="s">
+      <c r="E2" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="F2" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="G2" s="11" t="s">
         <v>117</v>
       </c>
-      <c r="G2" s="11" t="s">
+      <c r="H2" s="11" t="s">
         <v>118</v>
       </c>
-      <c r="H2" s="11" t="s">
+      <c r="I2" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="I2" s="3" t="s">
+      <c r="J2" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="J2" s="3" t="s">
+      <c r="K2" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="K2" s="3" t="s">
+      <c r="L2" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="L2" s="3" t="s">
+      <c r="M2" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="N2" s="11" t="s">
         <v>123</v>
       </c>
-      <c r="M2" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="N2" s="11" t="s">
+      <c r="O2" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="O2" s="3" t="s">
+      <c r="P2" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="P2" s="3" t="s">
-        <v>126</v>
-      </c>
       <c r="Q2" s="11" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="R2" s="9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="S2" s="9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="T2" s="9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="U2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:21" ht="15" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D3" s="3"/>
       <c r="E3" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="F3" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="G3" s="11" t="s">
         <v>117</v>
       </c>
-      <c r="G3" s="11" t="s">
+      <c r="H3" s="11" t="s">
         <v>118</v>
       </c>
-      <c r="H3" s="11" t="s">
+      <c r="I3" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="I3" s="3" t="s">
+      <c r="J3" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="J3" s="3" t="s">
+      <c r="K3" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="K3" s="3" t="s">
+      <c r="L3" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="L3" s="3" t="s">
+      <c r="M3" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="N3" s="11" t="s">
         <v>123</v>
       </c>
-      <c r="M3" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="N3" s="11" t="s">
+      <c r="O3" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="O3" s="3" t="s">
+      <c r="P3" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="P3" s="3" t="s">
-        <v>126</v>
-      </c>
       <c r="Q3" s="11" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="R3" s="9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="S3" s="9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="T3" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="U3" t="s">
         <v>128</v>
-      </c>
-      <c r="U3" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="4" spans="1:21" ht="15" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E4" s="3"/>
       <c r="F4" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="G4" s="11" t="s">
         <v>117</v>
       </c>
-      <c r="G4" s="11" t="s">
+      <c r="H4" s="11" t="s">
         <v>118</v>
       </c>
-      <c r="H4" s="11" t="s">
+      <c r="I4" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="I4" s="3" t="s">
+      <c r="J4" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="J4" s="3" t="s">
+      <c r="K4" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="K4" s="3" t="s">
+      <c r="L4" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="L4" s="3" t="s">
+      <c r="M4" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="N4" s="11" t="s">
         <v>123</v>
       </c>
-      <c r="M4" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="N4" s="11" t="s">
+      <c r="O4" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="O4" s="3" t="s">
+      <c r="P4" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="P4" s="3" t="s">
-        <v>126</v>
-      </c>
       <c r="Q4" s="11" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="R4" s="9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="S4" s="9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="T4" s="9" t="s">
+        <v>130</v>
+      </c>
+      <c r="U4" t="s">
         <v>131</v>
-      </c>
-      <c r="U4" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="5" spans="1:21" ht="15" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D5" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="E5" s="3" t="s">
         <v>115</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>116</v>
       </c>
       <c r="F5" s="3"/>
       <c r="G5" s="11" t="s">
+        <v>117</v>
+      </c>
+      <c r="H5" s="11" t="s">
         <v>118</v>
       </c>
-      <c r="H5" s="11" t="s">
+      <c r="I5" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="I5" s="3" t="s">
+      <c r="J5" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="J5" s="3" t="s">
+      <c r="K5" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="K5" s="3" t="s">
+      <c r="L5" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="L5" s="3" t="s">
+      <c r="M5" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="N5" s="11" t="s">
         <v>123</v>
       </c>
-      <c r="M5" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="N5" s="11" t="s">
+      <c r="O5" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="O5" s="3" t="s">
+      <c r="P5" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="P5" s="3" t="s">
-        <v>126</v>
-      </c>
       <c r="Q5" s="11" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="R5" s="9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="S5" s="9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="T5" s="9" t="s">
+        <v>133</v>
+      </c>
+      <c r="U5" t="s">
         <v>134</v>
-      </c>
-      <c r="U5" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="6" spans="1:21" ht="15" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D6" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="E6" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="E6" s="3" t="s">
+      <c r="F6" s="3" t="s">
         <v>116</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>117</v>
       </c>
       <c r="G6" s="3"/>
       <c r="H6" s="11" t="s">
+        <v>118</v>
+      </c>
+      <c r="I6" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="I6" s="3" t="s">
+      <c r="J6" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="J6" s="3" t="s">
+      <c r="K6" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="K6" s="3" t="s">
+      <c r="L6" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="L6" s="3" t="s">
+      <c r="M6" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="N6" s="11" t="s">
         <v>123</v>
       </c>
-      <c r="M6" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="N6" s="11" t="s">
+      <c r="O6" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="O6" s="3" t="s">
+      <c r="P6" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="P6" s="3" t="s">
-        <v>126</v>
-      </c>
       <c r="Q6" s="11" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="R6" s="9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="S6" s="9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="T6" s="9" t="s">
+        <v>136</v>
+      </c>
+      <c r="U6" t="s">
         <v>137</v>
-      </c>
-      <c r="U6" t="s">
-        <v>138</v>
       </c>
     </row>
     <row r="7" spans="1:21" ht="15" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
+        <v>138</v>
+      </c>
+      <c r="B7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="G7" s="3" t="s">
         <v>139</v>
       </c>
-      <c r="B7" t="s">
-        <v>9</v>
-      </c>
-      <c r="C7" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="G7" s="3" t="s">
-        <v>140</v>
-      </c>
       <c r="H7" s="11" t="s">
+        <v>118</v>
+      </c>
+      <c r="I7" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="I7" s="3" t="s">
+      <c r="J7" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="J7" s="3" t="s">
+      <c r="K7" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="K7" s="3" t="s">
+      <c r="L7" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="L7" s="3" t="s">
+      <c r="M7" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="N7" s="11" t="s">
         <v>123</v>
       </c>
-      <c r="M7" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="N7" s="11" t="s">
+      <c r="O7" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="O7" s="3" t="s">
+      <c r="P7" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="P7" s="3" t="s">
-        <v>126</v>
-      </c>
       <c r="Q7" s="11" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="R7" s="9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="S7" s="9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="T7" s="9" t="s">
+        <v>136</v>
+      </c>
+      <c r="U7" t="s">
         <v>137</v>
-      </c>
-      <c r="U7" t="s">
-        <v>138</v>
       </c>
     </row>
     <row r="8" spans="1:21" ht="15" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D8" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="E8" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="E8" s="3" t="s">
+      <c r="F8" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="F8" s="3" t="s">
+      <c r="G8" s="11" t="s">
         <v>117</v>
       </c>
-      <c r="G8" s="11" t="s">
+      <c r="H8" s="11" t="s">
         <v>118</v>
-      </c>
-      <c r="H8" s="11" t="s">
-        <v>119</v>
       </c>
       <c r="I8" s="3"/>
       <c r="J8" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="K8" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="K8" s="3" t="s">
+      <c r="L8" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="L8" s="3" t="s">
+      <c r="M8" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="N8" s="11" t="s">
         <v>123</v>
       </c>
-      <c r="M8" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="N8" s="11" t="s">
+      <c r="O8" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="O8" s="3" t="s">
+      <c r="P8" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="P8" s="3" t="s">
-        <v>126</v>
-      </c>
       <c r="Q8" s="11" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="R8" s="9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="S8" s="9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="T8" s="9" t="s">
+        <v>141</v>
+      </c>
+      <c r="U8" t="s">
         <v>142</v>
-      </c>
-      <c r="U8" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="9" spans="1:21" ht="15" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
+        <v>143</v>
+      </c>
+      <c r="B9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="G9" s="11" t="s">
+        <v>117</v>
+      </c>
+      <c r="H9" s="11" t="s">
+        <v>118</v>
+      </c>
+      <c r="I9" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="B9" t="s">
-        <v>9</v>
-      </c>
-      <c r="C9" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="G9" s="11" t="s">
-        <v>118</v>
-      </c>
-      <c r="H9" s="11" t="s">
-        <v>119</v>
-      </c>
-      <c r="I9" s="3" t="s">
-        <v>145</v>
-      </c>
       <c r="J9" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="K9" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="K9" s="3" t="s">
+      <c r="L9" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="L9" s="3" t="s">
+      <c r="M9" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="N9" s="11" t="s">
         <v>123</v>
       </c>
-      <c r="M9" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="N9" s="11" t="s">
+      <c r="O9" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="O9" s="3" t="s">
+      <c r="P9" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="P9" s="3" t="s">
-        <v>126</v>
-      </c>
       <c r="Q9" s="11" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="R9" s="9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="S9" s="9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="T9" s="9" t="s">
+        <v>141</v>
+      </c>
+      <c r="U9" t="s">
         <v>142</v>
-      </c>
-      <c r="U9" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="10" spans="1:21" ht="15" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B10" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D10" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="E10" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="E10" s="3" t="s">
+      <c r="F10" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="F10" s="3" t="s">
+      <c r="G10" s="11" t="s">
         <v>117</v>
       </c>
-      <c r="G10" s="11" t="s">
+      <c r="H10" s="11" t="s">
         <v>118</v>
       </c>
-      <c r="H10" s="11" t="s">
+      <c r="I10" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="I10" s="3" t="s">
+      <c r="J10" s="3" t="s">
         <v>120</v>
-      </c>
-      <c r="J10" s="3" t="s">
-        <v>121</v>
       </c>
       <c r="K10" s="3"/>
       <c r="L10" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="M10" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="N10" s="11" t="s">
         <v>123</v>
       </c>
-      <c r="M10" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="N10" s="11" t="s">
+      <c r="O10" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="O10" s="3" t="s">
+      <c r="P10" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="P10" s="3" t="s">
-        <v>126</v>
-      </c>
       <c r="Q10" s="11" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="R10" s="9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="S10" s="9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="T10" s="9" t="s">
+        <v>146</v>
+      </c>
+      <c r="U10" t="s">
         <v>147</v>
-      </c>
-      <c r="U10" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="11" spans="1:21" ht="15" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
+        <v>148</v>
+      </c>
+      <c r="B11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="G11" s="11" t="s">
+        <v>117</v>
+      </c>
+      <c r="H11" s="11" t="s">
+        <v>118</v>
+      </c>
+      <c r="I11" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="J11" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="K11" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="B11" t="s">
-        <v>9</v>
-      </c>
-      <c r="C11" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="F11" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="G11" s="11" t="s">
-        <v>118</v>
-      </c>
-      <c r="H11" s="11" t="s">
-        <v>119</v>
-      </c>
-      <c r="I11" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="J11" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="K11" s="3" t="s">
-        <v>150</v>
-      </c>
       <c r="L11" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="M11" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="N11" s="11" t="s">
         <v>123</v>
       </c>
-      <c r="M11" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="N11" s="11" t="s">
+      <c r="O11" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="O11" s="3" t="s">
+      <c r="P11" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="P11" s="3" t="s">
-        <v>126</v>
-      </c>
       <c r="Q11" s="11" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="R11" s="9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="S11" s="9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="T11" s="9" t="s">
+        <v>146</v>
+      </c>
+      <c r="U11" t="s">
         <v>147</v>
-      </c>
-      <c r="U11" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="12" spans="1:21" ht="15" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B12" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D12" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="E12" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="E12" s="3" t="s">
+      <c r="F12" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="F12" s="3" t="s">
+      <c r="G12" s="11" t="s">
         <v>117</v>
       </c>
-      <c r="G12" s="11" t="s">
+      <c r="H12" s="11" t="s">
         <v>118</v>
       </c>
-      <c r="H12" s="11" t="s">
+      <c r="I12" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="I12" s="3" t="s">
+      <c r="J12" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="J12" s="3" t="s">
+      <c r="K12" s="3" t="s">
         <v>121</v>
-      </c>
-      <c r="K12" s="3" t="s">
-        <v>122</v>
       </c>
       <c r="L12" s="3"/>
       <c r="M12" s="11" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="N12" s="11" t="s">
+        <v>123</v>
+      </c>
+      <c r="O12" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="O12" s="3" t="s">
+      <c r="P12" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="P12" s="3" t="s">
-        <v>126</v>
-      </c>
       <c r="Q12" s="11" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="R12" s="9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="S12" s="9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="T12" s="9" t="s">
+        <v>151</v>
+      </c>
+      <c r="U12" t="s">
         <v>152</v>
-      </c>
-      <c r="U12" t="s">
-        <v>153</v>
       </c>
     </row>
     <row r="13" spans="1:21" ht="15" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B13" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D13" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="E13" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="E13" s="3" t="s">
+      <c r="F13" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="F13" s="3" t="s">
+      <c r="G13" s="11" t="s">
         <v>117</v>
       </c>
-      <c r="G13" s="11" t="s">
+      <c r="H13" s="11" t="s">
         <v>118</v>
       </c>
-      <c r="H13" s="11" t="s">
+      <c r="I13" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="I13" s="3" t="s">
+      <c r="J13" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="J13" s="3" t="s">
+      <c r="K13" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="K13" s="3" t="s">
+      <c r="L13" s="3" t="s">
         <v>122</v>
-      </c>
-      <c r="L13" s="3" t="s">
-        <v>123</v>
       </c>
       <c r="M13" s="3"/>
       <c r="N13" s="11" t="s">
+        <v>123</v>
+      </c>
+      <c r="O13" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="O13" s="3" t="s">
+      <c r="P13" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="P13" s="3" t="s">
-        <v>126</v>
-      </c>
       <c r="Q13" s="11" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="R13" s="9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="S13" s="9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="T13" s="9" t="s">
+        <v>154</v>
+      </c>
+      <c r="U13" t="s">
         <v>155</v>
-      </c>
-      <c r="U13" t="s">
-        <v>156</v>
       </c>
     </row>
     <row r="14" spans="1:21" ht="15" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
+        <v>156</v>
+      </c>
+      <c r="B14" t="s">
+        <v>8</v>
+      </c>
+      <c r="C14" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="G14" s="11" t="s">
+        <v>117</v>
+      </c>
+      <c r="H14" s="11" t="s">
+        <v>118</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="K14" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="L14" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="M14" s="11" t="s">
         <v>157</v>
       </c>
-      <c r="B14" t="s">
-        <v>9</v>
-      </c>
-      <c r="C14" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="G14" s="11" t="s">
-        <v>118</v>
-      </c>
-      <c r="H14" s="11" t="s">
-        <v>119</v>
-      </c>
-      <c r="I14" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="J14" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="K14" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="L14" s="3" t="s">
+      <c r="N14" s="11" t="s">
         <v>123</v>
       </c>
-      <c r="M14" s="11" t="s">
-        <v>158</v>
-      </c>
-      <c r="N14" s="11" t="s">
+      <c r="O14" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="O14" s="3" t="s">
+      <c r="P14" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="P14" s="3" t="s">
-        <v>126</v>
-      </c>
       <c r="Q14" s="11" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="R14" s="9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="S14" s="9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="T14" s="9" t="s">
+        <v>154</v>
+      </c>
+      <c r="U14" t="s">
         <v>155</v>
-      </c>
-      <c r="U14" t="s">
-        <v>156</v>
       </c>
     </row>
     <row r="15" spans="1:21" ht="15" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B15" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C15" s="9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D15" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="E15" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="E15" s="3" t="s">
+      <c r="F15" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="F15" s="3" t="s">
+      <c r="G15" s="11" t="s">
         <v>117</v>
       </c>
-      <c r="G15" s="11" t="s">
+      <c r="H15" s="11" t="s">
         <v>118</v>
       </c>
-      <c r="H15" s="11" t="s">
+      <c r="I15" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="I15" s="3" t="s">
+      <c r="J15" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="J15" s="3" t="s">
+      <c r="K15" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="K15" s="3" t="s">
+      <c r="L15" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="L15" s="3" t="s">
-        <v>123</v>
-      </c>
       <c r="M15" s="11" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="N15" s="3"/>
       <c r="O15" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="P15" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="P15" s="3" t="s">
-        <v>126</v>
-      </c>
       <c r="Q15" s="11" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="R15" s="9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="S15" s="9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="T15" s="9" t="s">
+        <v>159</v>
+      </c>
+      <c r="U15" t="s">
         <v>160</v>
-      </c>
-      <c r="U15" t="s">
-        <v>161</v>
       </c>
     </row>
     <row r="16" spans="1:21" ht="15" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
+        <v>161</v>
+      </c>
+      <c r="B16" t="s">
+        <v>8</v>
+      </c>
+      <c r="C16" t="s">
         <v>162</v>
       </c>
-      <c r="B16" t="s">
-        <v>9</v>
-      </c>
-      <c r="C16" t="s">
-        <v>163</v>
-      </c>
       <c r="D16" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="E16" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="E16" s="3" t="s">
+      <c r="F16" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="F16" s="3" t="s">
+      <c r="G16" s="11" t="s">
         <v>117</v>
       </c>
-      <c r="G16" s="11" t="s">
+      <c r="H16" s="11" t="s">
         <v>118</v>
       </c>
-      <c r="H16" s="11" t="s">
+      <c r="I16" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="I16" s="3" t="s">
+      <c r="J16" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="J16" s="3" t="s">
+      <c r="K16" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="K16" s="3" t="s">
+      <c r="L16" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="L16" s="3" t="s">
+      <c r="M16" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="N16" s="11" t="s">
         <v>123</v>
       </c>
-      <c r="M16" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="N16" s="11" t="s">
+      <c r="O16" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="O16" s="3" t="s">
+      <c r="P16" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="P16" s="3" t="s">
-        <v>126</v>
-      </c>
       <c r="Q16" s="11" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="R16" s="9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="S16" s="9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="T16" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="U16" t="s">
         <v>21</v>
-      </c>
-      <c r="U16" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="17" spans="1:21" ht="15" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B17" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C17" s="9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D17" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="E17" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="E17" s="3" t="s">
+      <c r="F17" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="F17" s="3" t="s">
+      <c r="G17" s="11" t="s">
         <v>117</v>
       </c>
-      <c r="G17" s="11" t="s">
+      <c r="H17" s="11" t="s">
         <v>118</v>
       </c>
-      <c r="H17" s="11" t="s">
+      <c r="I17" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="I17" s="3" t="s">
+      <c r="J17" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="J17" s="3" t="s">
+      <c r="K17" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="K17" s="3" t="s">
+      <c r="L17" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="L17" s="3" t="s">
+      <c r="M17" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="N17" s="11" t="s">
         <v>123</v>
       </c>
-      <c r="M17" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="N17" s="11" t="s">
+      <c r="O17" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="O17" s="3" t="s">
+      <c r="P17" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="P17" s="3" t="s">
-        <v>126</v>
-      </c>
       <c r="Q17" s="11" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="R17" s="9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="S17" s="9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="T17" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="U17" t="s">
         <v>97</v>
-      </c>
-      <c r="U17" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="18" spans="1:21" ht="15" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B18" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D18" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="E18" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="E18" s="3" t="s">
+      <c r="F18" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="F18" s="3" t="s">
+      <c r="G18" s="11" t="s">
         <v>117</v>
       </c>
-      <c r="G18" s="11" t="s">
+      <c r="H18" s="11" t="s">
         <v>118</v>
       </c>
-      <c r="H18" s="11" t="s">
+      <c r="I18" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="I18" s="3" t="s">
+      <c r="J18" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="J18" s="3" t="s">
+      <c r="K18" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="K18" s="3" t="s">
+      <c r="L18" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="L18" s="3" t="s">
+      <c r="M18" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="N18" s="11" t="s">
         <v>123</v>
       </c>
-      <c r="M18" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="N18" s="11" t="s">
+      <c r="O18" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="O18" s="3" t="s">
+      <c r="P18" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="P18" s="3" t="s">
-        <v>126</v>
-      </c>
       <c r="Q18" s="11" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="R18" s="9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="S18" s="9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="T18" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="U18" t="s">
         <v>21</v>
-      </c>
-      <c r="U18" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="19" spans="1:21" ht="15" x14ac:dyDescent="0.15">

--- a/interfaceTest/testFile/case/userCase.xlsx
+++ b/interfaceTest/testFile/case/userCase.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="730" uniqueCount="169">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="730" uniqueCount="170">
   <si>
     <t>case_name</t>
   </si>
@@ -529,11 +529,15 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>login_username_error</t>
+    <t>login</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>13111111103</t>
+    <t>ok</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>13011111105</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -975,10 +979,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H6"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1027,7 +1031,7 @@
         <v>1</v>
       </c>
       <c r="D2" s="13" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="E2" s="12" t="s">
         <v>165</v>
@@ -1039,15 +1043,15 @@
         <v>0</v>
       </c>
       <c r="H2" s="6" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A3" s="6"/>
       <c r="B3" s="6"/>
       <c r="C3" s="8"/>
-      <c r="D3" s="7"/>
-      <c r="E3" s="8"/>
+      <c r="D3" s="13"/>
+      <c r="E3" s="12"/>
       <c r="F3" s="8"/>
       <c r="G3" s="8"/>
       <c r="H3" s="6"/>
@@ -1056,7 +1060,7 @@
       <c r="A4" s="6"/>
       <c r="B4" s="6"/>
       <c r="C4" s="8"/>
-      <c r="D4" s="6"/>
+      <c r="D4" s="7"/>
       <c r="E4" s="8"/>
       <c r="F4" s="8"/>
       <c r="G4" s="8"/>
@@ -1067,7 +1071,7 @@
       <c r="B5" s="6"/>
       <c r="C5" s="8"/>
       <c r="D5" s="6"/>
-      <c r="E5" s="6"/>
+      <c r="E5" s="8"/>
       <c r="F5" s="8"/>
       <c r="G5" s="8"/>
       <c r="H5" s="6"/>
@@ -1077,10 +1081,20 @@
       <c r="B6" s="6"/>
       <c r="C6" s="8"/>
       <c r="D6" s="6"/>
-      <c r="E6" s="8"/>
+      <c r="E6" s="6"/>
       <c r="F6" s="8"/>
       <c r="G6" s="8"/>
       <c r="H6" s="6"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A7" s="6"/>
+      <c r="B7" s="6"/>
+      <c r="C7" s="8"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="8"/>
+      <c r="F7" s="8"/>
+      <c r="G7" s="8"/>
+      <c r="H7" s="6"/>
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>

--- a/interfaceTest/testFile/case/userCase.xlsx
+++ b/interfaceTest/testFile/case/userCase.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="730" uniqueCount="170">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="734" uniqueCount="175">
   <si>
     <t>case_name</t>
   </si>
@@ -519,25 +519,55 @@
   </si>
   <si>
     <t>addAddress_tokenNull</t>
+  </si>
+  <si>
+    <t>login</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>ok</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>autosession</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>weiboUID</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>false</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>111111</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>username</t>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>13011111105</t>
+    </r>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>login</t>
+    <t>userName</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>ok</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>13011111105</t>
+    <t>password</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -660,7 +690,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -701,6 +731,18 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -979,10 +1021,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H7"/>
+  <dimension ref="A1:J7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="E39" sqref="E39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -990,11 +1032,11 @@
     <col min="1" max="1" width="20" customWidth="1"/>
     <col min="3" max="3" width="6.75" customWidth="1"/>
     <col min="4" max="4" width="20.25" customWidth="1"/>
-    <col min="5" max="5" width="14.5" customWidth="1"/>
-    <col min="8" max="8" width="62.125" customWidth="1"/>
+    <col min="5" max="7" width="14.5" customWidth="1"/>
+    <col min="10" max="10" width="62.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -1005,58 +1047,72 @@
         <v>2</v>
       </c>
       <c r="D1" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" s="17" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="14" t="s">
+        <v>165</v>
+      </c>
+      <c r="B2" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="15">
+        <v>1</v>
+      </c>
+      <c r="D2" s="16" t="s">
+        <v>172</v>
+      </c>
+      <c r="E2" s="12" t="s">
+        <v>171</v>
+      </c>
+      <c r="F2" s="12" t="s">
+        <v>170</v>
+      </c>
+      <c r="G2" s="12" t="s">
+        <v>168</v>
+      </c>
+      <c r="H2" s="15">
+        <v>0</v>
+      </c>
+      <c r="I2" s="15">
+        <v>0</v>
+      </c>
+      <c r="J2" s="14" t="s">
         <v>166</v>
       </c>
-      <c r="E1" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A2" s="6" t="s">
-        <v>167</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2" s="8">
-        <v>1</v>
-      </c>
-      <c r="D2" s="13" t="s">
-        <v>169</v>
-      </c>
-      <c r="E2" s="12" t="s">
-        <v>165</v>
-      </c>
-      <c r="F2" s="8">
-        <v>0</v>
-      </c>
-      <c r="G2" s="8">
-        <v>0</v>
-      </c>
-      <c r="H2" s="6" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A3" s="6"/>
       <c r="B3" s="6"/>
       <c r="C3" s="8"/>
       <c r="D3" s="13"/>
       <c r="E3" s="12"/>
-      <c r="F3" s="8"/>
-      <c r="G3" s="8"/>
-      <c r="H3" s="6"/>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="F3" s="12"/>
+      <c r="G3" s="12"/>
+      <c r="H3" s="8"/>
+      <c r="I3" s="8"/>
+      <c r="J3" s="6"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A4" s="6"/>
       <c r="B4" s="6"/>
       <c r="C4" s="8"/>
@@ -1064,9 +1120,11 @@
       <c r="E4" s="8"/>
       <c r="F4" s="8"/>
       <c r="G4" s="8"/>
-      <c r="H4" s="6"/>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="H4" s="8"/>
+      <c r="I4" s="8"/>
+      <c r="J4" s="6"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A5" s="6"/>
       <c r="B5" s="6"/>
       <c r="C5" s="8"/>
@@ -1074,19 +1132,23 @@
       <c r="E5" s="8"/>
       <c r="F5" s="8"/>
       <c r="G5" s="8"/>
-      <c r="H5" s="6"/>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="H5" s="8"/>
+      <c r="I5" s="8"/>
+      <c r="J5" s="6"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A6" s="6"/>
       <c r="B6" s="6"/>
       <c r="C6" s="8"/>
       <c r="D6" s="6"/>
       <c r="E6" s="6"/>
-      <c r="F6" s="8"/>
-      <c r="G6" s="8"/>
-      <c r="H6" s="6"/>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="F6" s="6"/>
+      <c r="G6" s="6"/>
+      <c r="H6" s="8"/>
+      <c r="I6" s="8"/>
+      <c r="J6" s="6"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A7" s="6"/>
       <c r="B7" s="6"/>
       <c r="C7" s="8"/>
@@ -1094,7 +1156,9 @@
       <c r="E7" s="8"/>
       <c r="F7" s="8"/>
       <c r="G7" s="8"/>
-      <c r="H7" s="6"/>
+      <c r="H7" s="8"/>
+      <c r="I7" s="8"/>
+      <c r="J7" s="6"/>
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
@@ -1589,7 +1653,7 @@
   <dimension ref="A1:K12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+      <selection activeCell="G32" sqref="G32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
